--- a/biology/Zoologie/Aeshna_isoceles/Aeshna_isoceles.xlsx
+++ b/biology/Zoologie/Aeshna_isoceles/Aeshna_isoceles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'æschne isocèle (Aeshna isoceles) est une espèce de libellules de la famille des Aeshnidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Taille totale de 62 à 66 mm.
 Couleur caractéristiques de l'espèce : rousse aux yeux verts.
@@ -544,7 +558,9 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mâle aime s’éloigner de son milieu en allant dans les forêts de feuillus et autres terrains comportant des arbres.
 Elle fréquente préférentiellement les étangs évolués, les mares et les fossés riches en végétation, ayant atteint un état climacique.
@@ -578,15 +594,17 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Aeshna isoceles isosceles (Müller, 1767)[1]
-Aeshna isosceles (Müller, 1767)[1]
-Anaciaeschna isosceles (Müller, 1767)[1]
-Aeschna chrysophthalmus Charpentier, 1825[2]
-Aeshna rufescens Vander Linden, 1825 [2]
-Anaxiaeschna rufescens [2]
-Libellula isoceles Müller, 1767[2]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Aeshna isoceles isosceles (Müller, 1767)
+Aeshna isosceles (Müller, 1767)
+Anaciaeschna isosceles (Müller, 1767)
+Aeschna chrysophthalmus Charpentier, 1825
+Aeshna rufescens Vander Linden, 1825 
+Anaxiaeschna rufescens 
+Libellula isoceles Müller, 1767</t>
         </is>
       </c>
     </row>
@@ -614,9 +632,11 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est inscrite sur la liste rouge régionale des odonates du Nord-Pas-de-Calais comme espèce en danger[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est inscrite sur la liste rouge régionale des odonates du Nord-Pas-de-Calais comme espèce en danger.
 </t>
         </is>
       </c>
